--- a/biology/Zoologie/Acanthocinini/Acanthocinini.xlsx
+++ b/biology/Zoologie/Acanthocinini/Acanthocinini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthocinini sont une tribu de coléoptères cérambycidés, de la sous-famille des Lamiinae, décrite par le zoologiste français Charles Émile Blanchard en 1845.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Acanthocinini sont des longicornes ailés, caractérisés  par les ongles divariqués, les tibias intermédiaires avec un sillon et le scape sans carène (cicatrice)[1]. Le scape très allongé permet de distinguer cette tribu des Acanthoderini.La coloration est généralement mimétique avec les écorces ; les femelles de certains genres (Acanthocinus, Graphisurus, Colobeutrypanus) portent une longue tarière déprimée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Acanthocinini sont des longicornes ailés, caractérisés  par les ongles divariqués, les tibias intermédiaires avec un sillon et le scape sans carène (cicatrice). Le scape très allongé permet de distinguer cette tribu des Acanthoderini.La coloration est généralement mimétique avec les écorces ; les femelles de certains genres (Acanthocinus, Graphisurus, Colobeutrypanus) portent une longue tarière déprimée.
 </t>
         </is>
       </c>
@@ -542,15 +556,86 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Acanthocinini  sont une tribu énorme, qui comprend plus de 300 genres et 2 000 espèces répandus dans le monde entier, surtout dans les régions tropicales[2]. Seulement trois genres vivent en Europe[3],[4] et moins d'une dizaine dans les Antilles françaises[5].
-Liste des genres présents en France
-Acanthocinus Dejean, 1821
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acanthocinini  sont une tribu énorme, qui comprend plus de 300 genres et 2 000 espèces répandus dans le monde entier, surtout dans les régions tropicales. Seulement trois genres vivent en Europe, et moins d'une dizaine dans les Antilles françaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acanthocinini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthocinini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres présents en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acanthocinus Dejean, 1821
 Exocentrus Dejean, 1835
-Leiopus Audinet-Serville, 1835
-Liste des genres présents dans les Antilles françaises
-Amniscus Dejean, 1835
+Leiopus Audinet-Serville, 1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthocinini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthocinini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres présents dans les Antilles françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amniscus Dejean, 1835
 Cometochus Villiers, 1980
 Lagocheirus Dejean, 1835
 Leptostylopsis Dillon, 1956
@@ -561,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Acanthocinini</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acanthocinini</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanista Pascoe, 1864
 Acanthocinus Megerle in Dejean, 1821
